--- a/common/StoryTrigger.xlsx
+++ b/common/StoryTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>卷</t>
-  </si>
-  <si>
-    <t>节</t>
-  </si>
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>剧情id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">剧情触发位置
 </t>
     </r>
@@ -85,6 +86,62 @@
     </r>
   </si>
   <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">触发事件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1=对白组
+2=选项组
+3=战斗
+4=小游戏</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">触发参数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对白=对白组id
+选项=选项组id
+战斗=关卡id
+小游戏=游戏id</t>
+    </r>
+  </si>
+  <si>
+    <t>奖励组id</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -108,6 +165,9 @@
     </r>
   </si>
   <si>
+    <t>position</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -116,7 +176,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">chapter </t>
+      <t xml:space="preserve">level </t>
     </r>
     <r>
       <rPr>
@@ -139,7 +199,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">section </t>
+      <t xml:space="preserve">stage </t>
     </r>
     <r>
       <rPr>
@@ -154,8 +214,18 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">trigger_position </t>
+    <t>title</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">trigger_type </t>
     </r>
     <r>
       <rPr>
@@ -166,7 +236,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>array</t>
+      <t>int</t>
     </r>
   </si>
   <si>
@@ -178,7 +248,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">prerequisite_lv </t>
+      <t xml:space="preserve">trigger_par </t>
     </r>
     <r>
       <rPr>
@@ -194,14 +264,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">prerequisite_Stage </t>
+      <t xml:space="preserve">reward </t>
     </r>
     <r>
       <rPr>
@@ -216,13 +279,16 @@
     </r>
   </si>
   <si>
-    <t>home,boudoir</t>
-  </si>
-  <si>
-    <t>home, main_room</t>
-  </si>
-  <si>
-    <t>home,maid_room</t>
+    <t>boudoir</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>maid_room</t>
   </si>
 </sst>
 </file>
@@ -230,10 +296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -242,6 +308,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -250,172 +323,165 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,187 +502,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,17 +705,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,36 +719,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,7 +742,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,11 +788,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,159 +810,162 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1224,125 +1287,158 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="65.25" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="147.75" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="32.25" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" ht="32.25" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
+    <row r="3" ht="16.5" spans="1:8">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:8">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>9999</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:8">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
+      <c r="G5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="33" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
-    <row r="5" ht="33" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/StoryTrigger.xlsx
+++ b/common/StoryTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
-  <si>
-    <t>剧情id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+  <si>
+    <t>剧情-回id</t>
   </si>
   <si>
     <r>
@@ -97,59 +97,6 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">触发事件
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1=对白组
-2=选项组
-3=战斗
-4=小游戏</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">触发参数
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对白=对白组id
-选项=选项组id
-战斗=关卡id
-小游戏=游戏id</t>
-    </r>
-  </si>
-  <si>
-    <t>奖励组id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -214,18 +161,8 @@
     </r>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">trigger_type </t>
+    <r>
+      <t xml:space="preserve">title </t>
     </r>
     <r>
       <rPr>
@@ -236,46 +173,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">trigger_par </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">reward </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
+      <t>string</t>
     </r>
   </si>
   <si>
@@ -323,6 +221,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -331,7 +282,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,68 +343,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,54 +360,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,12 +400,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -520,31 +532,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,127 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,16 +607,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,15 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -762,6 +642,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -773,17 +682,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,149 +708,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -963,9 +861,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1287,20 +1182,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="147.75" spans="1:8">
+    <row r="1" ht="64.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,48 +1211,30 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" ht="31.5" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="32.25" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:8">
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1366,24 +1243,15 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:8">
+    <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1392,24 +1260,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>9999</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:8">
+    <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -1418,27 +1277,14 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
+    <row r="6" ht="16.5" spans="1:1">
       <c r="A6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" ht="16.5" spans="1:1">
       <c r="A7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/StoryTrigger.xlsx
+++ b/common/StoryTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="16740" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>剧情-回id</t>
   </si>
@@ -97,6 +97,28 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">卷
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同id为一章</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -162,6 +184,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">title </t>
     </r>
     <r>
@@ -174,6 +203,29 @@
         <charset val="134"/>
       </rPr>
       <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">chapter </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
     </r>
   </si>
   <si>
@@ -194,10 +246,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -221,19 +273,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,91 +348,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,6 +379,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -351,15 +394,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,37 +452,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,139 +620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,11 +655,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,7 +713,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,36 +752,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -708,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -720,133 +772,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,20 +1234,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" spans="1:5">
+    <row r="1" ht="65.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,30 +1264,36 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="31.5" spans="1:5">
+    <row r="2" ht="32.25" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" ht="16.5" spans="1:6">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1243,15 +1302,18 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1260,15 +1322,18 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9999</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -1277,14 +1342,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9999</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:1">
+    <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:1">
+    <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/StoryTrigger.xlsx
+++ b/common/StoryTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16740" windowHeight="7845"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,19 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>剧情-回id</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">剧情触发位置
 </t>
     </r>
@@ -43,13 +36,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">解锁所需身份
 </t>
     </r>
@@ -65,13 +51,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">解锁所需关卡
 </t>
     </r>
@@ -90,13 +69,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">卷
 </t>
     </r>
@@ -112,13 +84,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -138,13 +103,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">level </t>
     </r>
     <r>
@@ -161,13 +119,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">stage </t>
     </r>
     <r>
@@ -184,13 +135,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">title </t>
     </r>
     <r>
@@ -207,13 +151,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">chapter </t>
     </r>
     <r>
@@ -229,16 +166,7 @@
     </r>
   </si>
   <si>
-    <t>boudoir</t>
-  </si>
-  <si>
-    <t>xxxx</t>
-  </si>
-  <si>
     <t>home</t>
-  </si>
-  <si>
-    <t>maid_room</t>
   </si>
 </sst>
 </file>
@@ -246,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -258,6 +186,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -268,42 +202,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,8 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,7 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,9 +301,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,70 +331,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,25 +380,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,145 +548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,45 +584,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -705,15 +594,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,11 +615,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,6 +630,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -760,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,147 +700,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1237,124 +1168,104 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="65.25" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="32.25" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="3">
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3">
-        <v>9999</v>
-      </c>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3">
-        <v>9999</v>
-      </c>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="F6" s="3"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="F7" s="3"/>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/common/StoryTrigger.xlsx
+++ b/common/StoryTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>剧情-回id</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">剧情触发位置
 </t>
     </r>
@@ -36,6 +43,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">解锁所需身份
 </t>
     </r>
@@ -51,6 +65,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">解锁所需关卡
 </t>
     </r>
@@ -69,6 +90,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">卷
 </t>
     </r>
@@ -84,6 +112,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -99,10 +134,30 @@
     </r>
   </si>
   <si>
-    <t>position</t>
+    <r>
+      <t xml:space="preserve">position </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">level </t>
     </r>
     <r>
@@ -119,6 +174,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">stage </t>
     </r>
     <r>
@@ -135,6 +197,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">title </t>
     </r>
     <r>
@@ -151,6 +220,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">chapter </t>
     </r>
     <r>
@@ -167,6 +243,9 @@
   </si>
   <si>
     <t>home</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -174,10 +253,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -201,57 +280,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -267,9 +296,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,46 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -331,15 +341,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +459,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -392,25 +567,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,61 +615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,73 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,17 +677,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,26 +730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -666,17 +745,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,10 +767,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,19 +779,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,112 +800,112 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,7 +1247,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1234,6 +1313,9 @@
       </c>
       <c r="D3" s="1">
         <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>

--- a/common/StoryTrigger.xlsx
+++ b/common/StoryTrigger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="16740" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>剧情-回id</t>
   </si>
@@ -135,6 +135,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">position </t>
     </r>
     <r>
@@ -245,7 +252,10 @@
     <t>home</t>
   </si>
   <si>
-    <t>xxx</t>
+    <t>序章</t>
+  </si>
+  <si>
+    <t>第一章</t>
   </si>
 </sst>
 </file>
@@ -253,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -280,9 +290,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,14 +327,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -318,8 +334,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +364,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -341,89 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
@@ -459,13 +469,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,163 +631,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,17 +672,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,37 +692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,6 +745,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -767,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,133 +789,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,7 +1257,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1322,20 +1332,44 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4"/>
